--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_001/frequency_features.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_001/frequency_features.xlsx
@@ -532,40 +532,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01000333444481494</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>920.4320748010721</v>
+        <v>57.85062358728175</v>
       </c>
       <c r="C2" t="n">
-        <v>16984.51283374596</v>
+        <v>238.1067948315604</v>
       </c>
       <c r="D2" t="n">
-        <v>7.47732458525739e-07</v>
+        <v>7.751459025567612e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002346998008215632</v>
+        <v>0.0001340861060967138</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="G2" t="n">
-        <v>8.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.990183054479774e-16</v>
+        <v>0.2482859381428402</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.2693668941481446</v>
       </c>
       <c r="K2" t="n">
-        <v>5.24631180834759</v>
+        <v>1.023638512403321</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.098417687831171</v>
+        <v>-0.2000725412964912</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -584,51 +584,51 @@
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R2" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S2" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01667222407469156</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="B3" t="n">
-        <v>839.9127605949012</v>
+        <v>90.66148399273746</v>
       </c>
       <c r="C3" t="n">
-        <v>20028.69526334113</v>
+        <v>514.5501652259318</v>
       </c>
       <c r="D3" t="n">
-        <v>1.115152287110105e-06</v>
+        <v>1.173019621373147e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00358470668653395</v>
+        <v>0.0001536326684366055</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-5.307154811946064e-16</v>
+        <v>0.1771482738947469</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.7276303016991562</v>
       </c>
       <c r="K3" t="n">
-        <v>2.799615012674992</v>
+        <v>1.74896551305007</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.218699278712759</v>
+        <v>-0.9121123323735956</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -647,51 +647,51 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R3" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S3" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1060.589542284815</v>
+        <v>421.8042616158309</v>
       </c>
       <c r="C4" t="n">
-        <v>15374.96667104172</v>
+        <v>872.9930085554154</v>
       </c>
       <c r="D4" t="n">
-        <v>5.226714090803524e-08</v>
+        <v>2.756573143448683e-07</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002710151348926985</v>
+        <v>0.0003359934145417663</v>
       </c>
       <c r="F4" t="n">
-        <v>69.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>21.2</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.09933921104597e-15</v>
+        <v>1.810318719381248</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.9166948351469226</v>
       </c>
       <c r="K4" t="n">
         <v>3.774533050587569</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.390626437140504</v>
+        <v>0.2293817778885321</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -710,51 +710,51 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R4" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S4" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01333777925975325</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1035.856543120189</v>
+        <v>195.6529397977685</v>
       </c>
       <c r="C5" t="n">
-        <v>23704.68280218653</v>
+        <v>546.0923577215785</v>
       </c>
       <c r="D5" t="n">
-        <v>3.979486601262907e-06</v>
+        <v>4.254296574819337e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0139735446870521</v>
+        <v>0.0008529113845163617</v>
       </c>
       <c r="F5" t="n">
-        <v>3.9</v>
+        <v>10.9</v>
       </c>
       <c r="G5" t="n">
-        <v>7.3</v>
+        <v>0.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>8.055502839560989e-16</v>
+        <v>0.8397121879732554</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.4718800991102439</v>
       </c>
       <c r="K5" t="n">
-        <v>2.583538924565236</v>
+        <v>1.756004154447779</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.643408428410771</v>
+        <v>-0.5127400203118474</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -773,51 +773,51 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R5" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S5" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1305.38017182613</v>
+        <v>173.3312922105618</v>
       </c>
       <c r="C6" t="n">
-        <v>14369.62647743424</v>
+        <v>362.9744494550546</v>
       </c>
       <c r="D6" t="n">
-        <v>7.027878351010402e-08</v>
+        <v>7.031525234764955e-08</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001479865106116683</v>
+        <v>0.0001212512860073734</v>
       </c>
       <c r="F6" t="n">
-        <v>49.9</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.7</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>9.477062164189399e-17</v>
+        <v>-0.7439111253672182</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.2866462704819749</v>
       </c>
       <c r="K6" t="n">
-        <v>3.676942741702483</v>
+        <v>-0.02072982355972044</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.359548645041161</v>
+        <v>-1.185569066680395</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -836,51 +836,51 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R6" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S6" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01333777925975325</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1076.610646431398</v>
+        <v>259.7434698852521</v>
       </c>
       <c r="C7" t="n">
-        <v>15753.90655882202</v>
+        <v>960.6379535614044</v>
       </c>
       <c r="D7" t="n">
-        <v>4.768594718186431e-08</v>
+        <v>1.015745989785005e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001150692229831222</v>
+        <v>0.0001826415738103073</v>
       </c>
       <c r="F7" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>11.2</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.89541243283788e-16</v>
+        <v>1.114778840709237</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>1.084709449364597</v>
       </c>
       <c r="K7" t="n">
-        <v>4.86534373758582</v>
+        <v>2.721019553246699</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.14563069605136</v>
+        <v>-0.80066865928604</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -899,51 +899,51 @@
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R7" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S7" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>762.6621155944327</v>
+        <v>111.3965263266593</v>
       </c>
       <c r="C8" t="n">
-        <v>20547.1808497878</v>
+        <v>380.266864775069</v>
       </c>
       <c r="D8" t="n">
-        <v>6.956759102835152e-08</v>
+        <v>6.913365603364662e-08</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001047967048427055</v>
+        <v>6.7242148149033e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>33.8</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-3.790824865675759e-17</v>
+        <v>-0.4780966795135592</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0.3526394169984665</v>
       </c>
       <c r="K8" t="n">
-        <v>5.294551094255855</v>
+        <v>0.6430153380032484</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.284828354834989</v>
+        <v>-0.8473361019419694</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -962,51 +962,51 @@
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R8" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S8" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.003334444814938312</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="B9" t="n">
-        <v>1146.630230379245</v>
+        <v>56.64573476060246</v>
       </c>
       <c r="C9" t="n">
-        <v>18078.13983155813</v>
+        <v>331.4651168384598</v>
       </c>
       <c r="D9" t="n">
-        <v>7.077885942345138e-07</v>
+        <v>7.516859563109394e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002358947786508062</v>
+        <v>0.0001769166763112444</v>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>8.6</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-7.581649731351519e-17</v>
+        <v>0.02003661567682398</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0.440900186450645</v>
       </c>
       <c r="K9" t="n">
-        <v>3.477106379183752</v>
+        <v>1.054622538712755</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.879558588410674</v>
+        <v>-0.9153417790586585</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1025,51 +1025,51 @@
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R9" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S9" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>1295.737673079672</v>
+        <v>334.1307445295816</v>
       </c>
       <c r="C10" t="n">
-        <v>16603.32440881654</v>
+        <v>746.2487797099388</v>
       </c>
       <c r="D10" t="n">
-        <v>1.787398278673169e-09</v>
+        <v>4.94811620029759e-08</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001518430541887284</v>
+        <v>0.0001400809269857934</v>
       </c>
       <c r="F10" t="n">
-        <v>18.1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>22.7</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>5.117613568662276e-16</v>
+        <v>1.434037530169879</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.8110630947835603</v>
       </c>
       <c r="K10" t="n">
         <v>3.539353420603022</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.374169181783953</v>
+        <v>0.4195207482058844</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1088,51 +1088,51 @@
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R10" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S10" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.03667889296432143</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>736.4990414957759</v>
+        <v>209.7682233649953</v>
       </c>
       <c r="C11" t="n">
-        <v>22109.56264576286</v>
+        <v>751.7613063640916</v>
       </c>
       <c r="D11" t="n">
-        <v>1.019652531558046e-07</v>
+        <v>2.056808971748335e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002400889145086976</v>
+        <v>0.000187876414635709</v>
       </c>
       <c r="F11" t="n">
-        <v>22.7</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.444402271648791e-16</v>
+        <v>-0.9002928041416107</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.017600869158938</v>
       </c>
       <c r="K11" t="n">
-        <v>3.414894907893883</v>
+        <v>0.9001936377098456</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.848328096243027</v>
+        <v>-2.470141474150316</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1151,48 +1151,48 @@
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R11" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S11" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.003334444814938312</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="B12" t="n">
-        <v>806.0903506446033</v>
+        <v>176.3560162553497</v>
       </c>
       <c r="C12" t="n">
-        <v>22479.78463808601</v>
+        <v>849.5889663436342</v>
       </c>
       <c r="D12" t="n">
-        <v>4.089814808136832e-07</v>
+        <v>6.13397169629011e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01956658935219204</v>
+        <v>0.002177716942283846</v>
       </c>
       <c r="F12" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4.245723849556851e-15</v>
+        <v>-0.6190440833987123</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>1.282470854306629</v>
       </c>
       <c r="K12" t="n">
-        <v>3.39250901197172</v>
+        <v>1.726461375931242</v>
       </c>
       <c r="L12" t="n">
         <v>-2.812574593611202</v>
@@ -1214,51 +1214,51 @@
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R12" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S12" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.006668889629876625</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1383.046743846433</v>
+        <v>86.73094894663356</v>
       </c>
       <c r="C13" t="n">
-        <v>12723.13321265489</v>
+        <v>198.7371339858526</v>
       </c>
       <c r="D13" t="n">
-        <v>7.455870083439259e-08</v>
+        <v>8.719721722220671e-08</v>
       </c>
       <c r="E13" t="n">
-        <v>0.000745086875652631</v>
+        <v>0.0001225748342161984</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>21.3</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.477062164189398e-18</v>
+        <v>-0.3722358323889852</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0.1207336371971952</v>
       </c>
       <c r="K13" t="n">
-        <v>3.223442819531745</v>
+        <v>0.02972366479219419</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.006399609890604</v>
+        <v>-0.632581160306856</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1277,51 +1277,51 @@
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R13" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S13" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>969.2341690442479</v>
+        <v>227.6316907479431</v>
       </c>
       <c r="C14" t="n">
-        <v>17287.93060303759</v>
+        <v>451.29862565617</v>
       </c>
       <c r="D14" t="n">
-        <v>1.410882902432636e-08</v>
+        <v>1.609648215152627e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002359178080979379</v>
+        <v>0.0001409617070007886</v>
       </c>
       <c r="F14" t="n">
-        <v>19.1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>10.5</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-2.36926554104735e-17</v>
+        <v>-0.9769600461285111</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.2981681950018374</v>
       </c>
       <c r="K14" t="n">
-        <v>3.152393995736928</v>
+        <v>-0.2894338981962095</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.521707352256153</v>
+        <v>-1.42449501034027</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1340,51 +1340,51 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R14" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S14" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>822.0362996401375</v>
+        <v>140.3371507957391</v>
       </c>
       <c r="C15" t="n">
-        <v>16956.00061146293</v>
+        <v>305.6565578743191</v>
       </c>
       <c r="D15" t="n">
-        <v>4.069315148022301e-07</v>
+        <v>4.540427095546811e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001388826858151825</v>
+        <v>9.978858110468736e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>60.3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>6.3</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-7.581649731351519e-17</v>
+        <v>-0.6023053682220566</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.2900807635308629</v>
       </c>
       <c r="K15" t="n">
-        <v>3.98303304953899</v>
+        <v>0.4000480254360959</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.703850803161063</v>
+        <v>-1.113707657872235</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1403,51 +1403,51 @@
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R15" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S15" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01667222407469156</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>996.0892206926763</v>
+        <v>81.27103922695787</v>
       </c>
       <c r="C16" t="n">
-        <v>15627.73305368353</v>
+        <v>338.1168533365577</v>
       </c>
       <c r="D16" t="n">
-        <v>7.193670714500886e-07</v>
+        <v>7.725820500244372e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000732803736407657</v>
+        <v>5.39784907311263e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>7.10779662314205e-16</v>
+        <v>-0.3488027434633386</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.4248699857743564</v>
       </c>
       <c r="K16" t="n">
-        <v>3.04987172919768</v>
+        <v>0.673930858309716</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.563207366019558</v>
+        <v>-0.9202637077687453</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1466,51 +1466,51 @@
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R16" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S16" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1372.559415662742</v>
+        <v>193.8292976370952</v>
       </c>
       <c r="C17" t="n">
-        <v>14727.41910636182</v>
+        <v>300.4311777809313</v>
       </c>
       <c r="D17" t="n">
-        <v>1.088198993012468e-09</v>
+        <v>2.129346266149647e-09</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0005596075033340467</v>
+        <v>4.221561169703961e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>28.3</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>36.7</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.032659892540607e-16</v>
+        <v>-0.8318853975840995</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0.1432234288990543</v>
       </c>
       <c r="K17" t="n">
-        <v>2.747004668618224</v>
+        <v>-0.5658811793353856</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.215624684722288</v>
+        <v>-1.186964046137048</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1529,51 +1529,51 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R17" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S17" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0266755585195065</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="B18" t="n">
-        <v>805.6342798334268</v>
+        <v>137.7908172885269</v>
       </c>
       <c r="C18" t="n">
-        <v>20888.13974452212</v>
+        <v>578.5803201143418</v>
       </c>
       <c r="D18" t="n">
-        <v>1.770695769678017e-07</v>
+        <v>5.254433648751232e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002157392344372131</v>
+        <v>0.0004219592409247634</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.232018081344622e-16</v>
+        <v>0.5438747815430366</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0.9840349381995286</v>
       </c>
       <c r="K18" t="n">
-        <v>2.872396342849276</v>
+        <v>2.357193561419488</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.130798501250309</v>
+        <v>-0.8477476991417625</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1592,51 +1592,51 @@
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R18" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S18" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>958.2115089488906</v>
+        <v>138.9060059498422</v>
       </c>
       <c r="C19" t="n">
-        <v>16067.44994029672</v>
+        <v>252.0019719180647</v>
       </c>
       <c r="D19" t="n">
-        <v>1.912814136910288e-07</v>
+        <v>2.402503291315786e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001074408283985797</v>
+        <v>7.666979087570617e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G19" t="n">
-        <v>11.7</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.79082486567576e-16</v>
+        <v>-0.5961631156645588</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.1609582423096216</v>
       </c>
       <c r="K19" t="n">
-        <v>3.630871935086135</v>
+        <v>-0.18676075585211</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.370190323275094</v>
+        <v>-0.9208853643202582</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1655,51 +1655,51 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R19" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S19" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.006668889629876625</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1168.092220315985</v>
+        <v>53.090999535719</v>
       </c>
       <c r="C20" t="n">
-        <v>17190.50875275267</v>
+        <v>159.4968947262242</v>
       </c>
       <c r="D20" t="n">
-        <v>1.489511385109466e-09</v>
+        <v>9.402204126964957e-10</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0007684148356794907</v>
+        <v>5.033115806525739e-05</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>8.4</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.89541243283788e-16</v>
+        <v>-0.2278583671060902</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0.1545521002013887</v>
       </c>
       <c r="K20" t="n">
-        <v>4.030853364815893</v>
+        <v>0.1267647449726622</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.392664635001273</v>
+        <v>-0.5498499748675285</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1718,51 +1718,51 @@
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R20" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S20" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.01667222407469156</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1007.318181690881</v>
+        <v>192.906427413658</v>
       </c>
       <c r="C21" t="n">
-        <v>16196.32494714678</v>
+        <v>291.0265623552864</v>
       </c>
       <c r="D21" t="n">
-        <v>1.331332740731946e-08</v>
+        <v>2.202330564621754e-08</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0009041191363899343</v>
+        <v>5.531844655926747e-05</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>7.7</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4.928072325378488e-16</v>
+        <v>-0.827924581174498</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0.1516991073472637</v>
       </c>
       <c r="K21" t="n">
-        <v>3.342561006688892</v>
+        <v>-0.4779450872208234</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.552524267262007</v>
+        <v>-1.248200522150929</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1781,51 +1781,51 @@
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R21" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S21" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.006668889629876625</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1081.614913963746</v>
+        <v>116.8054508486529</v>
       </c>
       <c r="C22" t="n">
-        <v>16295.72646905953</v>
+        <v>301.4817355604994</v>
       </c>
       <c r="D22" t="n">
-        <v>9.090543965387448e-08</v>
+        <v>9.726235559897516e-08</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0005744307035276982</v>
+        <v>3.370906817977835e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>16.1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>12.2</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-9.477062164189398e-18</v>
+        <v>-0.5013109478482957</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0.3505415875935108</v>
       </c>
       <c r="K22" t="n">
-        <v>3.307638273723441</v>
+        <v>0.08393098738478086</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.388155445778089</v>
+        <v>-1.292966960290831</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1844,51 +1844,51 @@
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R22" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S22" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.006668889629876625</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>851.8309940302499</v>
+        <v>50.3949005179988</v>
       </c>
       <c r="C23" t="n">
-        <v>21064.87676877371</v>
+        <v>465.512047428907</v>
       </c>
       <c r="D23" t="n">
-        <v>8.976510952019351e-07</v>
+        <v>9.301724960892046e-07</v>
       </c>
       <c r="E23" t="n">
-        <v>0.004420979531360985</v>
+        <v>0.000382593684000637</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>9.1</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-6.444402271648791e-16</v>
+        <v>-0.2162871266866901</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0.4788618057658916</v>
       </c>
       <c r="K23" t="n">
-        <v>4.364367953440174</v>
+        <v>0.7119221573793427</v>
       </c>
       <c r="L23" t="n">
-        <v>-2.707449140090523</v>
+        <v>-1.299899589935078</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R23" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S23" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1169.83222240621</v>
+        <v>334.4376799242816</v>
       </c>
       <c r="C24" t="n">
-        <v>18113.36076794121</v>
+        <v>808.596587784327</v>
       </c>
       <c r="D24" t="n">
-        <v>1.180450065345903e-06</v>
+        <v>1.217252564780572e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002025940865463334</v>
+        <v>0.0001300787403309562</v>
       </c>
       <c r="F24" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="G24" t="n">
-        <v>25.9</v>
+        <v>1.1</v>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.032659892540607e-16</v>
+        <v>1.435354849460436</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.6608213874152601</v>
       </c>
       <c r="K24" t="n">
-        <v>3.128363797909708</v>
+        <v>2.980106836245767</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.654529313507791</v>
+        <v>0.1601064226126011</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1970,51 +1970,51 @@
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R24" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S24" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>869.3069941799439</v>
+        <v>269.3748217645273</v>
       </c>
       <c r="C25" t="n">
-        <v>16495.00534177257</v>
+        <v>368.8877161433867</v>
       </c>
       <c r="D25" t="n">
-        <v>4.316070406877005e-08</v>
+        <v>5.402697664721067e-08</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0007184020751886478</v>
+        <v>4.899328000955817e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G25" t="n">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>-6.444402271648791e-16</v>
+        <v>-1.156115114869216</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0.1393781557129624</v>
       </c>
       <c r="K25" t="n">
-        <v>2.677054346863187</v>
+        <v>-0.6759664977110683</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.414586525203112</v>
+        <v>-1.372251646946734</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2033,51 +2033,51 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R25" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S25" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.006668889629876625</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="B26" t="n">
-        <v>890.9160025624979</v>
+        <v>29.40754902982868</v>
       </c>
       <c r="C26" t="n">
-        <v>16789.06646847938</v>
+        <v>257.7154446565031</v>
       </c>
       <c r="D26" t="n">
-        <v>2.013567108512307e-07</v>
+        <v>3.857373915504841e-07</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003456230759888849</v>
+        <v>0.0006771542658217468</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G26" t="n">
-        <v>10.7</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.222201135824396e-16</v>
+        <v>0.1185928355031881</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.3143829324042607</v>
       </c>
       <c r="K26" t="n">
-        <v>5.003162198210398</v>
+        <v>1.119146341633313</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.144277875355252</v>
+        <v>-0.6741066558756657</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2096,51 +2096,51 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R26" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S26" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.003334444814938312</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="B27" t="n">
-        <v>1228.340354571384</v>
+        <v>66.28761393729789</v>
       </c>
       <c r="C27" t="n">
-        <v>15769.06811279852</v>
+        <v>482.2340982948018</v>
       </c>
       <c r="D27" t="n">
-        <v>3.663223677401399e-08</v>
+        <v>4.718867259973937e-08</v>
       </c>
       <c r="E27" t="n">
-        <v>0.002397251740489721</v>
+        <v>0.0002524645242366264</v>
       </c>
       <c r="F27" t="n">
-        <v>50.1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>5.307154811946064e-16</v>
+        <v>-0.1587812173208666</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0.671644108592545</v>
       </c>
       <c r="K27" t="n">
-        <v>3.901403398342796</v>
+        <v>1.824868451524242</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.472022062773771</v>
+        <v>-0.7020704920971205</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2159,51 +2159,51 @@
         <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R27" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S27" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.01000333444481494</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>1152.565951841534</v>
+        <v>115.4605717139635</v>
       </c>
       <c r="C28" t="n">
-        <v>18129.71137541843</v>
+        <v>270.1706454836988</v>
       </c>
       <c r="D28" t="n">
-        <v>7.276209228657528e-07</v>
+        <v>9.123601952205139e-07</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003030302560990476</v>
+        <v>0.0001479346949664503</v>
       </c>
       <c r="F28" t="n">
-        <v>97.59999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="G28" t="n">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-7.771190974635307e-16</v>
+        <v>-0.495538934394693</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0.2218265313981921</v>
       </c>
       <c r="K28" t="n">
-        <v>4.871831797142536</v>
+        <v>0.08176867785300129</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.487734898401651</v>
+        <v>-1.005734243378685</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2222,51 +2222,51 @@
         <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R28" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S28" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.03334444814938312</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="B29" t="n">
-        <v>841.6752402031155</v>
+        <v>178.5104690386329</v>
       </c>
       <c r="C29" t="n">
-        <v>27622.23521228047</v>
+        <v>863.5029742516519</v>
       </c>
       <c r="D29" t="n">
-        <v>2.141076900565051e-07</v>
+        <v>3.053793237850134e-07</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005087116551337983</v>
+        <v>0.0004513014331979325</v>
       </c>
       <c r="F29" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.137247459702728e-15</v>
+        <v>0.275685476518252</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>1.32102323597242</v>
       </c>
       <c r="K29" t="n">
-        <v>6.365581670810772</v>
+        <v>2.889702380170035</v>
       </c>
       <c r="L29" t="n">
-        <v>-2.160600080746536</v>
+        <v>-1.236665999706001</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2285,51 +2285,51 @@
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R29" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S29" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.01000333444481494</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>1053.11946961281</v>
+        <v>461.4870921905518</v>
       </c>
       <c r="C30" t="n">
-        <v>20421.19942172142</v>
+        <v>829.8380019490834</v>
       </c>
       <c r="D30" t="n">
-        <v>5.771324093149694e-08</v>
+        <v>7.188223785787315e-08</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004291663694235058</v>
+        <v>0.0003855241273451632</v>
       </c>
       <c r="F30" t="n">
-        <v>14.7</v>
+        <v>19.2</v>
       </c>
       <c r="G30" t="n">
-        <v>19.5</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1.516329946270304e-16</v>
+        <v>1.980631296955158</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0.8720746069537375</v>
       </c>
       <c r="K30" t="n">
         <v>3.444702994342499</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.834811249414471</v>
+        <v>0.4000589731309257</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2348,51 +2348,51 @@
         <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R30" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S30" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.01667222407469156</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="B31" t="n">
-        <v>967.1483997439844</v>
+        <v>184.989427574054</v>
       </c>
       <c r="C31" t="n">
-        <v>20612.18586432079</v>
+        <v>966.9991289375079</v>
       </c>
       <c r="D31" t="n">
-        <v>1.926103627434257e-06</v>
+        <v>2.215788521608873e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>0.002518229575017923</v>
+        <v>0.0002441935805758072</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>9.856144650756976e-16</v>
+        <v>0.4406414781537006</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>1.336955642495463</v>
       </c>
       <c r="K31" t="n">
         <v>3.263019878006032</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.89981277728177</v>
+        <v>-1.190296415412643</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2411,51 +2411,51 @@
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R31" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S31" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>926.0219013955041</v>
+        <v>64.369436901179</v>
       </c>
       <c r="C32" t="n">
-        <v>18439.2375772102</v>
+        <v>323.5616270286069</v>
       </c>
       <c r="D32" t="n">
-        <v>2.237913620387788e-08</v>
+        <v>3.243865387721607e-07</v>
       </c>
       <c r="E32" t="n">
-        <v>0.005428040377079407</v>
+        <v>0.0003635860598220917</v>
       </c>
       <c r="F32" t="n">
-        <v>27</v>
+        <v>1.8</v>
       </c>
       <c r="G32" t="n">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>7.202567244783943e-16</v>
+        <v>-0.2762636776874636</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3674503876690876</v>
       </c>
       <c r="K32" t="n">
-        <v>5.60484504587697</v>
+        <v>0.6660871103559374</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.386404999882123</v>
+        <v>-0.9294961732901288</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2474,51 +2474,51 @@
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R32" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S32" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.003334444814938312</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="B33" t="n">
-        <v>946.516210970495</v>
+        <v>33.73410973210571</v>
       </c>
       <c r="C33" t="n">
-        <v>16767.39673752764</v>
+        <v>312.8403642656202</v>
       </c>
       <c r="D33" t="n">
-        <v>7.025038567139124e-06</v>
+        <v>7.294109062789282e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004678044140161782</v>
+        <v>0.0005048778638072605</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G33" t="n">
-        <v>11.9</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>7.581649731351519e-16</v>
+        <v>0.03745919507811227</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3776827372401817</v>
       </c>
       <c r="K33" t="n">
-        <v>3.970458751451502</v>
+        <v>0.9435112351660575</v>
       </c>
       <c r="L33" t="n">
-        <v>-1.445568663319337</v>
+        <v>-0.7760993570344689</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2537,51 +2537,51 @@
         <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R33" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S33" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.01667222407469156</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>1032.717774610181</v>
+        <v>289.1802333492741</v>
       </c>
       <c r="C34" t="n">
-        <v>16561.49927876006</v>
+        <v>826.5143457566222</v>
       </c>
       <c r="D34" t="n">
-        <v>3.490151243478536e-06</v>
+        <v>3.550442557549806e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002302087464003652</v>
+        <v>0.0001697483983185621</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>9.9</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>5.307154811946064e-16</v>
+        <v>1.241116881327357</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.7672592538368671</v>
       </c>
       <c r="K34" t="n">
-        <v>2.639462877433582</v>
+        <v>2.348113767331006</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.39783243558732</v>
+        <v>-0.5308943292182191</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2600,51 +2600,51 @@
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R34" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S34" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.01000333444481494</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>1068.966642289116</v>
+        <v>290.7045918057764</v>
       </c>
       <c r="C35" t="n">
-        <v>17115.5688890639</v>
+        <v>753.9555640091819</v>
       </c>
       <c r="D35" t="n">
-        <v>2.715595693452386e-06</v>
+        <v>2.786315878563612e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002328470715430869</v>
+        <v>0.0002665546302234988</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>9.9</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.137247459702728e-15</v>
+        <v>1.24765919229947</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0.7686477970210699</v>
       </c>
       <c r="K35" t="n">
-        <v>3.46410683537942</v>
+        <v>2.991139051788609</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.456597709294402</v>
+        <v>-0.2960119160474166</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2663,51 +2663,51 @@
         <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R35" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S35" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.01667222407469156</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>1073.414360902343</v>
+        <v>161.2449295606286</v>
       </c>
       <c r="C36" t="n">
-        <v>16330.96807839333</v>
+        <v>317.4531778305598</v>
       </c>
       <c r="D36" t="n">
-        <v>7.725154719575054e-08</v>
+        <v>2.569567898255387e-07</v>
       </c>
       <c r="E36" t="n">
-        <v>0.003473018142180253</v>
+        <v>0.0003537716723481378</v>
       </c>
       <c r="F36" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>12.3</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.175155708359485e-15</v>
+        <v>-0.6920383242945433</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0.2176442507901741</v>
       </c>
       <c r="K36" t="n">
-        <v>4.167579476065698</v>
+        <v>-0.173728895579271</v>
       </c>
       <c r="L36" t="n">
-        <v>-1.90828141269923</v>
+        <v>-1.084696620097042</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2726,51 +2726,51 @@
         <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R36" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S36" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1202.883624740216</v>
+        <v>196.2075107410452</v>
       </c>
       <c r="C37" t="n">
-        <v>17509.43816844327</v>
+        <v>331.4453316711511</v>
       </c>
       <c r="D37" t="n">
-        <v>1.051003268867441e-06</v>
+        <v>1.09761787021546e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003293960592481782</v>
+        <v>0.0001764142851449485</v>
       </c>
       <c r="F37" t="n">
-        <v>10.6</v>
+        <v>12.6</v>
       </c>
       <c r="G37" t="n">
-        <v>20.1</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>6.065319785081215e-16</v>
+        <v>-0.8420923207770178</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0.1983659907947231</v>
       </c>
       <c r="K37" t="n">
-        <v>3.687707807244852</v>
+        <v>-0.2994579001675065</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.652037556303523</v>
+        <v>-1.322391888176945</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2789,51 +2789,51 @@
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R37" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S37" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.01000333444481494</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1096.781154850837</v>
+        <v>142.8691134033217</v>
       </c>
       <c r="C38" t="n">
-        <v>15835.06534591189</v>
+        <v>230.8184912745124</v>
       </c>
       <c r="D38" t="n">
-        <v>1.083945883761392e-08</v>
+        <v>1.879929760706222e-08</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001654462594137291</v>
+        <v>5.520209287275857e-05</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>12.8</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>5.68623729851364e-17</v>
+        <v>-0.6131721605292776</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.1395468843167986</v>
       </c>
       <c r="K38" t="n">
-        <v>4.933756318720895</v>
+        <v>-0.3134352132106271</v>
       </c>
       <c r="L38" t="n">
-        <v>-1.22345015546029</v>
+        <v>-0.8960155960143071</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2852,51 +2852,51 @@
         <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R38" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S38" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.03667889296432143</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>815.474787887962</v>
+        <v>119.855597986087</v>
       </c>
       <c r="C39" t="n">
-        <v>23138.64711591561</v>
+        <v>470.1284650942881</v>
       </c>
       <c r="D39" t="n">
-        <v>2.228185302656618e-07</v>
+        <v>2.14836206473729e-07</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01023284084832664</v>
+        <v>0.001007147563703004</v>
       </c>
       <c r="F39" t="n">
-        <v>82.7</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-2.464036162689244e-15</v>
+        <v>-0.5144017080947941</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.4022184546828312</v>
       </c>
       <c r="K39" t="n">
-        <v>5.003257096949595</v>
+        <v>0.474969442270298</v>
       </c>
       <c r="L39" t="n">
-        <v>-1.767153970293059</v>
+        <v>-1.538017212167538</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2915,48 +2915,48 @@
         <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R39" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S39" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>1221.407469546175</v>
+        <v>85.13817074584568</v>
       </c>
       <c r="C40" t="n">
-        <v>14442.2063762701</v>
+        <v>401.5879654208486</v>
       </c>
       <c r="D40" t="n">
-        <v>1.668072822656059e-07</v>
+        <v>2.190813181738278e-07</v>
       </c>
       <c r="E40" t="n">
-        <v>0.002628161053924875</v>
+        <v>0.000226356508012757</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>25.5</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>6.254861028365003e-16</v>
+        <v>-0.3653998744456898</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0.5229976279921192</v>
       </c>
       <c r="K40" t="n">
-        <v>3.265851210747029</v>
+        <v>0.7226327176173782</v>
       </c>
       <c r="L40" t="n">
         <v>-1.420557258019927</v>
@@ -2978,51 +2978,51 @@
         <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R40" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S40" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.003334444814938312</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="B41" t="n">
-        <v>1048.463269591477</v>
+        <v>166.929953560369</v>
       </c>
       <c r="C41" t="n">
-        <v>20738.81668076708</v>
+        <v>715.5174784738408</v>
       </c>
       <c r="D41" t="n">
-        <v>1.132522145019556e-06</v>
+        <v>1.355022180575202e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>0.006398997184472396</v>
+        <v>0.000721794423028653</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.8</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.914366557166258e-15</v>
+        <v>0.6719637907340034</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>1.208761234890881</v>
       </c>
       <c r="K41" t="n">
         <v>3.327024404361036</v>
       </c>
       <c r="L41" t="n">
-        <v>-2.111010157138413</v>
+        <v>-1.181347069536374</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3041,51 +3041,51 @@
         <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R41" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S41" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.006668889629876625</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>1221.06205357318</v>
+        <v>478.4093232417602</v>
       </c>
       <c r="C42" t="n">
-        <v>16709.83289560329</v>
+        <v>1161.478514627947</v>
       </c>
       <c r="D42" t="n">
-        <v>5.760683310841729e-07</v>
+        <v>1.162403883911033e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004135765007312541</v>
+        <v>0.000505530493638016</v>
       </c>
       <c r="F42" t="n">
-        <v>21.6</v>
+        <v>3.1</v>
       </c>
       <c r="G42" t="n">
-        <v>13.4</v>
+        <v>4.8</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.89541243283788e-17</v>
+        <v>2.053258898033306</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0.8862409566750415</v>
       </c>
       <c r="K42" t="n">
         <v>3.517449539743319</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.629032468236723</v>
+        <v>-0.09997285801833744</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3104,48 +3104,48 @@
         <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R42" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S42" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.01333777925975325</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="B43" t="n">
-        <v>930.6070588866381</v>
+        <v>147.0587520380293</v>
       </c>
       <c r="C43" t="n">
-        <v>20307.18013466045</v>
+        <v>550.0169041513491</v>
       </c>
       <c r="D43" t="n">
-        <v>9.264961279175556e-08</v>
+        <v>1.138404664434702e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>0.006179718474827839</v>
+        <v>0.0007002610463996218</v>
       </c>
       <c r="F43" t="n">
-        <v>60.7</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>7.1</v>
+        <v>3.3</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.544761132762872e-15</v>
+        <v>-0.4733851999659649</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9919739339161875</v>
       </c>
       <c r="K43" t="n">
-        <v>4.165980305127922</v>
+        <v>1.668592101701394</v>
       </c>
       <c r="L43" t="n">
         <v>-1.998806660905824</v>
@@ -3167,51 +3167,51 @@
         <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R43" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S43" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.01667222407469156</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>867.8522757154417</v>
+        <v>168.5725376021604</v>
       </c>
       <c r="C44" t="n">
-        <v>18865.91456333015</v>
+        <v>313.3408746251471</v>
       </c>
       <c r="D44" t="n">
-        <v>1.497828120440938e-08</v>
+        <v>1.675588427868499e-08</v>
       </c>
       <c r="E44" t="n">
-        <v>0.005558950123291103</v>
+        <v>0.000245535531030934</v>
       </c>
       <c r="F44" t="n">
-        <v>54.5</v>
+        <v>1.2</v>
       </c>
       <c r="G44" t="n">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.232018081344622e-15</v>
+        <v>-0.7234872858461819</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0.1866328245954198</v>
       </c>
       <c r="K44" t="n">
-        <v>5.131803487045389</v>
+        <v>-0.2330107443282605</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.392908267135</v>
+        <v>-1.172950405565885</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3230,51 +3230,51 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R44" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S44" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.01000333444481494</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>1202.303946762814</v>
+        <v>151.3372361058942</v>
       </c>
       <c r="C45" t="n">
-        <v>16504.26349838244</v>
+        <v>316.8534269224646</v>
       </c>
       <c r="D45" t="n">
-        <v>1.467830843258352e-06</v>
+        <v>1.760104200082269e-06</v>
       </c>
       <c r="E45" t="n">
-        <v>0.005575204889950567</v>
+        <v>0.0002806447631889334</v>
       </c>
       <c r="F45" t="n">
-        <v>20.9</v>
+        <v>10.7</v>
       </c>
       <c r="G45" t="n">
-        <v>8.800000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>1.705871189554092e-16</v>
+        <v>-0.6495160347892455</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0.189720783327175</v>
       </c>
       <c r="K45" t="n">
-        <v>4.870826004355192</v>
+        <v>-0.1546534031313686</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.247592913203407</v>
+        <v>-1.15640009310849</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3293,51 +3293,51 @@
         <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R45" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S45" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.02000666888962987</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="B46" t="n">
-        <v>748.251555712757</v>
+        <v>198.411462534285</v>
       </c>
       <c r="C46" t="n">
-        <v>19357.48209768502</v>
+        <v>776.7866026560091</v>
       </c>
       <c r="D46" t="n">
-        <v>4.590006436687774e-08</v>
+        <v>4.80195736459598e-08</v>
       </c>
       <c r="E46" t="n">
-        <v>0.006103723483221568</v>
+        <v>0.0006399622658185945</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>4.359448595527124e-16</v>
+        <v>0.7416851428193878</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>1.381935606258999</v>
       </c>
       <c r="K46" t="n">
         <v>3.673977080529505</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.587988985782948</v>
+        <v>-0.7210823107273834</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -3356,51 +3356,51 @@
         <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R46" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S46" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>844.2962559908341</v>
+        <v>115.5455679329347</v>
       </c>
       <c r="C47" t="n">
-        <v>20484.86478186659</v>
+        <v>513.0470604077161</v>
       </c>
       <c r="D47" t="n">
-        <v>3.687105819176389e-07</v>
+        <v>6.201618114314291e-07</v>
       </c>
       <c r="E47" t="n">
-        <v>0.007897159211317978</v>
+        <v>0.0004899496146687705</v>
       </c>
       <c r="F47" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>6.6</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.402605200300031e-15</v>
+        <v>-0.4959037250340548</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0.7081273126358195</v>
       </c>
       <c r="K47" t="n">
-        <v>3.615160204411763</v>
+        <v>1.20945653342956</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.622539285225713</v>
+        <v>-1.375216027987174</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3419,48 +3419,48 @@
         <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R47" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S47" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.006668889629876625</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>963.9259409422791</v>
+        <v>91.97023260757771</v>
       </c>
       <c r="C48" t="n">
-        <v>22512.17205925397</v>
+        <v>482.6348227805674</v>
       </c>
       <c r="D48" t="n">
-        <v>1.490281610630769e-07</v>
+        <v>2.655513867955544e-06</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03973974850281362</v>
+        <v>0.002617061251780242</v>
       </c>
       <c r="F48" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="G48" t="n">
-        <v>11.3</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>5.875778541797427e-16</v>
+        <v>-0.3947220283587027</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0.4581279740032488</v>
       </c>
       <c r="K48" t="n">
-        <v>4.179499388278803</v>
+        <v>0.5450238992177305</v>
       </c>
       <c r="L48" t="n">
         <v>-1.888311235247539</v>
@@ -3482,51 +3482,51 @@
         <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R48" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S48" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>1018.827688288426</v>
+        <v>155.742235794107</v>
       </c>
       <c r="C49" t="n">
-        <v>20235.28558194083</v>
+        <v>433.9937560294633</v>
       </c>
       <c r="D49" t="n">
-        <v>5.585712978430643e-07</v>
+        <v>1.131198089169841e-06</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02151736627306979</v>
+        <v>0.001069483022560447</v>
       </c>
       <c r="F49" t="n">
-        <v>15.1</v>
+        <v>1.1</v>
       </c>
       <c r="G49" t="n">
-        <v>12</v>
+        <v>2.6</v>
       </c>
       <c r="H49" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>2.591976501905801e-15</v>
+        <v>-0.6684216128502446</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3696276982207855</v>
       </c>
       <c r="K49" t="n">
-        <v>3.884334166022422</v>
+        <v>0.183750877492391</v>
       </c>
       <c r="L49" t="n">
-        <v>-1.925101556239887</v>
+        <v>-1.373086688357169</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3545,51 +3545,51 @@
         <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R49" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S49" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.01000333444481494</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>1226.421159949202</v>
+        <v>232.174869594387</v>
       </c>
       <c r="C50" t="n">
-        <v>19684.74780535086</v>
+        <v>437.4690120453742</v>
       </c>
       <c r="D50" t="n">
-        <v>1.762780791955402e-06</v>
+        <v>2.07045573756402e-06</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01156628279283154</v>
+        <v>0.0005934278863268063</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G50" t="n">
-        <v>8.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>6.823484758216367e-16</v>
+        <v>-0.9964586677870686</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.2269167682227126</v>
       </c>
       <c r="K50" t="n">
-        <v>3.385139102519017</v>
+        <v>-0.488186419883087</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.762553331664583</v>
+        <v>-1.454077031049001</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3608,51 +3608,51 @@
         <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R50" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S50" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>1021.844287599172</v>
+        <v>209.3172467729759</v>
       </c>
       <c r="C51" t="n">
-        <v>17870.42255520022</v>
+        <v>398.6940337468659</v>
       </c>
       <c r="D51" t="n">
-        <v>2.68761444627877e-07</v>
+        <v>2.823930342168562e-07</v>
       </c>
       <c r="E51" t="n">
-        <v>0.006549168499236075</v>
+        <v>0.0003816183077759099</v>
       </c>
       <c r="F51" t="n">
-        <v>88.3</v>
+        <v>3.6</v>
       </c>
       <c r="G51" t="n">
-        <v>13.5</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.137247459702728e-15</v>
+        <v>-0.89835728228745</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0.2659706823068392</v>
       </c>
       <c r="K51" t="n">
-        <v>2.912642420020048</v>
+        <v>-0.2478898547408289</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.847328614155946</v>
+        <v>-1.459952992288569</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3671,51 +3671,51 @@
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R51" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S51" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.01667222407469156</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>814.2840698585276</v>
+        <v>112.3561688275382</v>
       </c>
       <c r="C52" t="n">
-        <v>21509.92670114995</v>
+        <v>310.6003477031448</v>
       </c>
       <c r="D52" t="n">
-        <v>1.722739367711043e-08</v>
+        <v>5.415854650425616e-08</v>
       </c>
       <c r="E52" t="n">
-        <v>0.008271653667594921</v>
+        <v>0.0007489174132026474</v>
       </c>
       <c r="F52" t="n">
-        <v>56.5</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>7.5</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>7.581649731351519e-17</v>
+        <v>-0.482215316856387</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0.2729743074204717</v>
       </c>
       <c r="K52" t="n">
-        <v>5.19718105512657</v>
+        <v>0.1298409225724548</v>
       </c>
       <c r="L52" t="n">
-        <v>-1.477385633945834</v>
+        <v>-1.201713497035231</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3734,51 +3734,51 @@
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R52" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S52" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.006668889629876625</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>905.8480090800686</v>
+        <v>199.5479931096407</v>
       </c>
       <c r="C53" t="n">
-        <v>23163.66503167262</v>
+        <v>724.8982445856193</v>
       </c>
       <c r="D53" t="n">
-        <v>2.337060279037692e-08</v>
+        <v>1.512933268023561e-07</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01146086123603662</v>
+        <v>0.0006402143103318061</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-6.728714136574474e-16</v>
+        <v>0.8564291549769987</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.7660832153279004</v>
       </c>
       <c r="K53" t="n">
-        <v>6.684649085958561</v>
+        <v>3.127270417973496</v>
       </c>
       <c r="L53" t="n">
-        <v>-2.25010415858234</v>
+        <v>-0.3989758046987497</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3797,51 +3797,51 @@
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R53" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S53" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.006668889629876625</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>974.903639356573</v>
+        <v>616.5230960289482</v>
       </c>
       <c r="C54" t="n">
-        <v>18600.43244060425</v>
+        <v>1127.021439529047</v>
       </c>
       <c r="D54" t="n">
-        <v>1.582373688839188e-06</v>
+        <v>1.723843916607779e-06</v>
       </c>
       <c r="E54" t="n">
-        <v>0.003678867834264726</v>
+        <v>0.0003483490511072869</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>16.1</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>2.36926554104735e-16</v>
+        <v>2.646021871368876</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0.7213078630919328</v>
       </c>
       <c r="K54" t="n">
         <v>3.913656227401282</v>
       </c>
       <c r="L54" t="n">
-        <v>-1.616233364184188</v>
+        <v>1.040517100015583</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3860,51 +3860,51 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R54" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S54" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.006668889629876625</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>1105.319626690002</v>
+        <v>313.1351031294338</v>
       </c>
       <c r="C55" t="n">
-        <v>17591.52642354973</v>
+        <v>1023.936973238179</v>
       </c>
       <c r="D55" t="n">
-        <v>6.293636112570386e-08</v>
+        <v>9.781834022259393e-08</v>
       </c>
       <c r="E55" t="n">
-        <v>0.005813261110237281</v>
+        <v>0.0005300606279202119</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>12.1</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-1.137247459702728e-16</v>
+        <v>1.343927481242205</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.383727144085443</v>
       </c>
       <c r="K55" t="n">
-        <v>5.535953010978734</v>
+        <v>4.117631872211091</v>
       </c>
       <c r="L55" t="n">
-        <v>-1.265732231405837</v>
+        <v>-0.5612596496801786</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3923,51 +3923,51 @@
         <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R55" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S55" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.006668889629876625</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>791.691536238754</v>
+        <v>115.7401804326091</v>
       </c>
       <c r="C56" t="n">
-        <v>20966.19062273713</v>
+        <v>896.4523769121492</v>
       </c>
       <c r="D56" t="n">
-        <v>2.454008181858546e-06</v>
+        <v>2.581591285487283e-06</v>
       </c>
       <c r="E56" t="n">
-        <v>0.004164380022611108</v>
+        <v>0.000256020845636213</v>
       </c>
       <c r="F56" t="n">
-        <v>41.9</v>
+        <v>18.2</v>
       </c>
       <c r="G56" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1.449990511120978e-15</v>
+        <v>0.4967389718137727</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>1.096029905292078</v>
       </c>
       <c r="K56" t="n">
-        <v>3.512457891236759</v>
+        <v>3.358545530641563</v>
       </c>
       <c r="L56" t="n">
-        <v>-2.241510938784275</v>
+        <v>-1.011833585966377</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3986,51 +3986,51 @@
         <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R56" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S56" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>915.2391697627818</v>
+        <v>489.379442501563</v>
       </c>
       <c r="C57" t="n">
-        <v>21365.82211404265</v>
+        <v>1296.694131629864</v>
       </c>
       <c r="D57" t="n">
-        <v>2.581385486530563e-06</v>
+        <v>2.672051068420912e-06</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01433068903325453</v>
+        <v>0.001226497556635156</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="G57" t="n">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>1.18937130160577e-15</v>
+        <v>2.100340954942331</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.026628123699346</v>
       </c>
       <c r="K57" t="n">
         <v>4.173822648286015</v>
       </c>
       <c r="L57" t="n">
-        <v>-1.689953663655844</v>
+        <v>0.2473290919578555</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -4049,51 +4049,51 @@
         <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R57" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S57" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.006668889629876625</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>952.569181822125</v>
+        <v>194.4721174349663</v>
       </c>
       <c r="C58" t="n">
-        <v>21138.57194746122</v>
+        <v>880.4697264575951</v>
       </c>
       <c r="D58" t="n">
-        <v>1.226271099651599e-06</v>
+        <v>1.569974880553476e-06</v>
       </c>
       <c r="E58" t="n">
-        <v>0.007438053614215693</v>
+        <v>0.0008738292760752745</v>
       </c>
       <c r="F58" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>10.8</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>6.254861028365003e-16</v>
+        <v>0.8346442808367652</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9954371434027069</v>
       </c>
       <c r="K58" t="n">
-        <v>3.650715335941126</v>
+        <v>2.972476088724143</v>
       </c>
       <c r="L58" t="n">
-        <v>-2.054286687102094</v>
+        <v>-0.6483165312135619</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -4112,51 +4112,51 @@
         <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R58" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S58" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>840.7531763235055</v>
+        <v>136.6075112566348</v>
       </c>
       <c r="C59" t="n">
-        <v>21106.10258054876</v>
+        <v>669.9534143990765</v>
       </c>
       <c r="D59" t="n">
-        <v>3.027020372822949e-07</v>
+        <v>3.363851540040348e-07</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01666191504657553</v>
+        <v>0.001845168992681937</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>7.7</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>3.790824865675759e-17</v>
+        <v>0.5862983315735399</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.8455894753961359</v>
       </c>
       <c r="K59" t="n">
-        <v>4.500587860648101</v>
+        <v>2.05236688651639</v>
       </c>
       <c r="L59" t="n">
-        <v>-1.990014272763985</v>
+        <v>-1.397184388026219</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -4175,48 +4175,48 @@
         <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R59" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S59" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.01000333444481494</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>1037.339393751863</v>
+        <v>147.630662412273</v>
       </c>
       <c r="C60" t="n">
-        <v>15498.5529826275</v>
+        <v>350.8954474919181</v>
       </c>
       <c r="D60" t="n">
-        <v>1.365252356791562e-07</v>
+        <v>2.1718060719195e-07</v>
       </c>
       <c r="E60" t="n">
-        <v>0.00513226209890629</v>
+        <v>0.0003231705780206184</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>13.1</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>6.254861028365003e-16</v>
+        <v>-0.6336079931857214</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0.2145717790785047</v>
       </c>
       <c r="K60" t="n">
-        <v>3.880066759855934</v>
+        <v>-0.08332298004639252</v>
       </c>
       <c r="L60" t="n">
         <v>-1.355727264266072</v>
@@ -4238,51 +4238,51 @@
         <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R60" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S60" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.01667222407469156</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>922.9829982874627</v>
+        <v>126.6229434721898</v>
       </c>
       <c r="C61" t="n">
-        <v>20442.77637194121</v>
+        <v>552.2810258509462</v>
       </c>
       <c r="D61" t="n">
-        <v>1.136053494290666e-07</v>
+        <v>3.718298520912061e-07</v>
       </c>
       <c r="E61" t="n">
-        <v>0.007420532625421783</v>
+        <v>0.0005451073569662822</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>9.4</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-4.7385310820947e-16</v>
+        <v>0.5434461093227031</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0.6186697214414513</v>
       </c>
       <c r="K61" t="n">
-        <v>3.598322899727491</v>
+        <v>2.320802106355473</v>
       </c>
       <c r="L61" t="n">
-        <v>-2.202488990107414</v>
+        <v>-0.6721850183128795</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -4301,13 +4301,13 @@
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="R61" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="S61" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
